--- a/data/data_koae/excel/KOAE_2007.xlsx
+++ b/data/data_koae/excel/KOAE_2007.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaProject\data_koae\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaeProject\KilaueaKoaeProject\data\data_koae\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,97 +26,25 @@
     <t>K009</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469158.3741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518324.3662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100028.7375</t>
-  </si>
-  <si>
     <t>K010</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469129.0202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518299.2483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100135.2210</t>
-  </si>
-  <si>
     <t>K011</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469115.8171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518271.7655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100234.0316</t>
-  </si>
-  <si>
     <t>K012</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469116.8654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518209.9688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100318.6341</t>
-  </si>
-  <si>
     <t>K013</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469110.5536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518159.7225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100404.6470</t>
-  </si>
-  <si>
     <t>K014</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469109.7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518145.4279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100420.1425</t>
-  </si>
-  <si>
     <t>K015</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469127.2323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518101.1526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100423.3715</t>
-  </si>
-  <si>
     <t>K017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469082.5816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518111.1529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100514.1528</t>
   </si>
   <si>
     <t>id site</t>
@@ -190,6 +118,78 @@
   </si>
   <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469158.3814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518324.3303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100028.7610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469129.0173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518299.2627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100135.2116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469115.8308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518271.6981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100234.0757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469116.8791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518209.9014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100318.6782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469110.5602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518159.6901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100404.6682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469109.7460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518145.4084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100420.1553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469127.2253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518101.1870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100423.3490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469082.5972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518111.0764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100514.2029</t>
   </si>
   <si>
     <t>NaN</t>
@@ -1068,45 +1068,45 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1115,7 +1115,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G10"/>
+      <selection activeCell="E3" sqref="E3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1147,30 +1147,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>2007</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>2007</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2007</v>
@@ -1256,16 +1256,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>2007</v>
@@ -1279,16 +1279,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>2007</v>
@@ -1302,16 +1302,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>2007</v>
@@ -1325,16 +1325,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>2007</v>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>2007</v>
@@ -1379,11 +1379,13 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J66"/>
+      <selection activeCell="L1" sqref="L1:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1393,22 +1395,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
         <v>55</v>
@@ -1431,22 +1433,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>55</v>
@@ -1469,22 +1471,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
         <v>55</v>
@@ -1507,22 +1509,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>55</v>
@@ -1545,22 +1547,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>55</v>
@@ -1583,22 +1585,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>55</v>
@@ -1621,22 +1623,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
         <v>55</v>
@@ -1659,22 +1661,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>55</v>
@@ -1706,28 +1708,28 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>19.347624975272002</v>
+        <v>19.347625200633001</v>
       </c>
       <c r="I9">
-        <v>-155.275857625805</v>
+        <v>-155.27585796516101</v>
       </c>
       <c r="J9">
-        <v>1007.84082593676</v>
+        <v>1007.84070061054</v>
       </c>
       <c r="K9">
-        <v>260918.62804236999</v>
+        <v>260918.592706355</v>
       </c>
       <c r="L9">
-        <v>2140865.8031355999</v>
+        <v>2140865.8285572799</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1744,28 +1746,28 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>19.3486436721746</v>
+        <v>19.348643581925899</v>
       </c>
       <c r="I10">
-        <v>-155.27595790548401</v>
+        <v>-155.27595776947399</v>
       </c>
       <c r="J10">
-        <v>1008.05011127889</v>
+        <v>1008.050194134</v>
       </c>
       <c r="K10">
-        <v>260909.57437209901</v>
+        <v>260909.588534315</v>
       </c>
       <c r="L10">
-        <v>2140978.7326442599</v>
+        <v>2140978.7224636399</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1782,28 +1784,28 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>19.349556036222999</v>
+        <v>19.349556459168301</v>
       </c>
       <c r="I11">
-        <v>-155.27614290800099</v>
+        <v>-155.276143545108</v>
       </c>
       <c r="J11">
-        <v>1018.6275627948301</v>
+        <v>1018.62731830869</v>
       </c>
       <c r="K11">
-        <v>260891.462061339</v>
+        <v>260891.39572232999</v>
       </c>
       <c r="L11">
-        <v>2141080.0061978502</v>
+        <v>2141080.0539083998</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1820,28 +1822,28 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>19.3503515240367</v>
+        <v>19.3503519469797</v>
       </c>
       <c r="I12">
-        <v>-155.276681230983</v>
+        <v>-155.27668186809399</v>
       </c>
       <c r="J12">
-        <v>1023.17198860832</v>
+        <v>1023.1717453664201</v>
       </c>
       <c r="K12">
-        <v>260836.048137367</v>
+        <v>260835.98179840701</v>
       </c>
       <c r="L12">
-        <v>2141168.8282888299</v>
+        <v>2141168.8759993901</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1858,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H13">
-        <v>19.351164579607001</v>
+        <v>19.3511647828864</v>
       </c>
       <c r="I13">
-        <v>-155.277090426981</v>
+        <v>-155.27709073330701</v>
       </c>
       <c r="J13">
-        <v>1026.4355000257499</v>
+        <v>1026.4353960342701</v>
       </c>
       <c r="K13">
-        <v>260794.23067997</v>
+        <v>260794.19878404</v>
       </c>
       <c r="L13">
-        <v>2141259.4169213199</v>
+        <v>2141259.4398527299</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1896,28 +1898,28 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H14">
-        <v>19.3513167313724</v>
+        <v>19.351316853987999</v>
       </c>
       <c r="I14">
-        <v>-155.277210756442</v>
+        <v>-155.27721094091601</v>
       </c>
       <c r="J14">
-        <v>1025.2338312966799</v>
+        <v>1025.2338060904301</v>
       </c>
       <c r="K14">
-        <v>260781.80695695599</v>
+        <v>260781.78774910199</v>
       </c>
       <c r="L14">
-        <v>2141276.4298995002</v>
+        <v>2141276.44373105</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1934,28 +1936,28 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H15">
-        <v>19.351352119748999</v>
+        <v>19.351351903975999</v>
       </c>
       <c r="I15">
-        <v>-155.27766307257701</v>
+        <v>-155.27766274736999</v>
       </c>
       <c r="J15">
-        <v>1023.82253806014</v>
+        <v>1023.8226572806</v>
       </c>
       <c r="K15">
-        <v>260734.32367357201</v>
+        <v>260734.357535394</v>
       </c>
       <c r="L15">
-        <v>2141280.9745512302</v>
+        <v>2141280.9502102402</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1963,22 +1965,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
         <v>55</v>
@@ -2010,28 +2012,28 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H17">
-        <v>19.352234627528802</v>
+        <v>19.3522351078268</v>
       </c>
       <c r="I17">
-        <v>-155.27739892903799</v>
+        <v>-155.27739965238001</v>
       </c>
       <c r="J17">
-        <v>1019.58382605482</v>
+        <v>1019.58361091278</v>
       </c>
       <c r="K17">
-        <v>260763.37078480399</v>
+        <v>260763.29546842101</v>
       </c>
       <c r="L17">
-        <v>2141378.3206276302</v>
+        <v>2141378.3748083799</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2039,22 +2041,22 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
         <v>55</v>
@@ -2077,22 +2079,22 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
         <v>55</v>
@@ -2115,22 +2117,22 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
         <v>55</v>
@@ -2153,22 +2155,22 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
         <v>55</v>
@@ -2191,22 +2193,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
         <v>55</v>
@@ -2229,22 +2231,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
         <v>55</v>
@@ -2267,22 +2269,22 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
         <v>55</v>
@@ -2305,22 +2307,22 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
         <v>55</v>
@@ -2343,22 +2345,22 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
         <v>55</v>
@@ -2381,22 +2383,22 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
         <v>55</v>
@@ -2419,22 +2421,22 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
         <v>55</v>
@@ -2457,22 +2459,22 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
         <v>55</v>
@@ -2495,22 +2497,22 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
         <v>55</v>
@@ -2533,22 +2535,22 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
         <v>55</v>
@@ -2571,22 +2573,22 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
         <v>55</v>
@@ -2609,22 +2611,22 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
         <v>55</v>
@@ -2647,22 +2649,22 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
         <v>55</v>
@@ -2685,22 +2687,22 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H35" t="s">
         <v>55</v>
@@ -2723,22 +2725,22 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
         <v>55</v>
@@ -2761,22 +2763,22 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
         <v>55</v>
@@ -2799,22 +2801,22 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
         <v>55</v>
@@ -2837,22 +2839,22 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
         <v>55</v>
@@ -2875,22 +2877,22 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
         <v>55</v>
@@ -2913,22 +2915,22 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
         <v>55</v>
@@ -2951,22 +2953,22 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s">
         <v>55</v>
@@ -2989,22 +2991,22 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
         <v>55</v>
@@ -3027,22 +3029,22 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H44" t="s">
         <v>55</v>
@@ -3065,22 +3067,22 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
         <v>55</v>
@@ -3103,22 +3105,22 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
         <v>55</v>
@@ -3141,22 +3143,22 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
         <v>55</v>
@@ -3179,22 +3181,22 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
         <v>55</v>
@@ -3217,22 +3219,22 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
         <v>55</v>
@@ -3255,22 +3257,22 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
         <v>55</v>
@@ -3293,22 +3295,22 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s">
         <v>55</v>
@@ -3331,22 +3333,22 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
         <v>55</v>
@@ -3369,22 +3371,22 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
         <v>55</v>
@@ -3407,22 +3409,22 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
         <v>55</v>
@@ -3445,22 +3447,22 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
         <v>55</v>
@@ -3483,22 +3485,22 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H56" t="s">
         <v>55</v>
@@ -3521,22 +3523,22 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
         <v>55</v>
@@ -3559,22 +3561,22 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H58" t="s">
         <v>55</v>
@@ -3597,22 +3599,22 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H59" t="s">
         <v>55</v>
@@ -3635,22 +3637,22 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H60" t="s">
         <v>55</v>
@@ -3673,22 +3675,22 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
         <v>55</v>
@@ -3711,22 +3713,22 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H62" t="s">
         <v>55</v>
@@ -3749,22 +3751,22 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s">
         <v>55</v>
@@ -3787,22 +3789,22 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H64" t="s">
         <v>55</v>
@@ -3825,22 +3827,22 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
         <v>55</v>
@@ -3863,22 +3865,22 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
         <v>55</v>
@@ -3898,5 +3900,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>